--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Mtnr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Mtnr1a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H2">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I2">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J2">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>20.64316657523867</v>
+        <v>33.88472376937667</v>
       </c>
       <c r="R2">
-        <v>123.858999451432</v>
+        <v>203.30834261626</v>
       </c>
       <c r="S2">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="T2">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>830.932037</v>
       </c>
       <c r="I3">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J3">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>783.811543045804</v>
       </c>
       <c r="S3">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="T3">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H4">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I4">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J4">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>68.93161336328711</v>
+        <v>66.29049690515157</v>
       </c>
       <c r="R4">
-        <v>620.384520269584</v>
+        <v>596.6144721463641</v>
       </c>
       <c r="S4">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="T4">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H5">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I5">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J5">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>23.602237419712</v>
+        <v>31.62201859198667</v>
       </c>
       <c r="R5">
-        <v>141.613424518272</v>
+        <v>189.73211155192</v>
       </c>
       <c r="S5">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="T5">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H6">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I6">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J6">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>20.89915652933734</v>
+        <v>32.24881044748223</v>
       </c>
       <c r="R6">
-        <v>188.092408764036</v>
+        <v>290.23929402734</v>
       </c>
       <c r="S6">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="T6">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H7">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I7">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J7">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>42.82991783748845</v>
+        <v>63.52876127973511</v>
       </c>
       <c r="R7">
-        <v>385.469260537396</v>
+        <v>571.758851517616</v>
       </c>
       <c r="S7">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="T7">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
     </row>
   </sheetData>
